--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33815.3631748575</v>
+        <v>6729257.271796645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33815.3631748575</v>
+        <v>6729257.271796645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036921800.289652</v>
+        <v>43319551.4421418</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10132.65417362555</v>
+        <v>1128672.95249634</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18583.69740960836</v>
+        <v>1978752.454720841</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27034.74064559117</v>
+        <v>2828831.956945344</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35920.2737982649</v>
+        <v>3651014.880897802</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44805.8069509386</v>
+        <v>4473197.804850261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53369.13687515319</v>
+        <v>5323316.868562063</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61932.26799792403</v>
+        <v>6173396.370786562</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70495.39912069488</v>
+        <v>7023475.87301106</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79208.43498658332</v>
+        <v>7842594.853630049</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87960.07401839131</v>
+        <v>8669395.864267044</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96711.71305019935</v>
+        <v>9496196.874904044</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105463.3520820074</v>
+        <v>10322997.88554105</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114214.9911138154</v>
+        <v>11149798.89617805</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122966.6301456234</v>
+        <v>11976599.90681505</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131718.2691774314</v>
+        <v>12803400.91745206</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
